--- a/Finance_Data/2019/Oct_2019.xlsx
+++ b/Finance_Data/2019/Oct_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\Desktop\Finance_Analysis_PowerBI\Finance_Data\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0049E08-4620-41AF-BC6E-38412662AC51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69A12FD-870C-4FD8-B566-A16123FDE862}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-660" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16275" yWindow="345" windowWidth="13575" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +740,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>19.600000000000001</v>
+        <v>-19.600000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
